--- a/10.ヒューマンスキル/01.ビジネスツール/リンク集_雛形.xlsx
+++ b/10.ヒューマンスキル/01.ビジネスツール/リンク集_雛形.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/01.ナレッジ/10.ビジネスツール/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/01.kai9文書/10.ヒューマンスキル/01.ビジネスツール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{ACB9D01B-0A07-4732-9109-F1FD50C83E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3099095F-D308-4D50-89E1-2A8F6E6ACA28}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="8_{ACB9D01B-0A07-4732-9109-F1FD50C83E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C4B3CA-9F02-49E0-A71A-41DE7C8EAEFE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>絶対パス</t>
     <rPh sb="0" eb="2">
@@ -668,6 +668,37 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足：Teamsにファイルを配置すると、開いた人全員で、同じエクセルファイルを同時編集できるので、とても便利です。</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ベンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -677,7 +708,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -932,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,13 +1016,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2490,11 +2518,9 @@
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="B2:V2"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18.75"/>
   <cols>
@@ -2502,29 +2528,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="28.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2698,14 +2729,14 @@
       <c r="G7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>45201</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="23">
         <v>45124</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <v>45556</v>
       </c>
     </row>
@@ -2732,13 +2763,13 @@
       <c r="I8" s="23">
         <v>45083</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <v>45347</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="22">
         <v>45194</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="22">
         <v>45300</v>
       </c>
     </row>
@@ -2762,16 +2793,16 @@
       <c r="G9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>45025</v>
       </c>
       <c r="J9" s="23">
         <v>44943</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <v>45645</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="8">
@@ -2793,16 +2824,16 @@
       <c r="G10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>45245</v>
       </c>
       <c r="J10" s="23">
         <v>45156</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>45398</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="19.5" customHeight="1">
       <c r="B11" s="9" t="s">
@@ -2841,11 +2872,11 @@
       <c r="I12" s="23">
         <v>45062</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>45516</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22">
         <v>45305</v>
       </c>
     </row>
@@ -2869,16 +2900,16 @@
       <c r="G13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>45278</v>
       </c>
       <c r="J13" s="23">
         <v>45186</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>45562</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>45335</v>
       </c>
     </row>
@@ -2902,16 +2933,16 @@
       <c r="G14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>45267</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>45450</v>
       </c>
       <c r="K14" s="23">
         <v>45183</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="8">
@@ -2936,11 +2967,11 @@
       <c r="I15" s="23">
         <v>45058</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24">
+      <c r="J15" s="22"/>
+      <c r="K15" s="22">
         <v>45243</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="8">
@@ -2965,13 +2996,13 @@
       <c r="I16" s="23">
         <v>44954</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>45145</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>45054</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="2:12" ht="19.5" customHeight="1">
       <c r="B17" s="8">
@@ -2996,13 +3027,13 @@
       <c r="I17" s="23">
         <v>44984</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>45254</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="22">
         <v>45067</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>45280</v>
       </c>
     </row>
@@ -3026,16 +3057,16 @@
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <v>45600</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <v>45450</v>
       </c>
       <c r="K18" s="23">
         <v>45043</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <v>45657</v>
       </c>
     </row>
@@ -3073,16 +3104,16 @@
       <c r="G20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="22">
         <v>45426</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="22">
         <v>45646</v>
       </c>
       <c r="K20" s="23">
         <v>45092</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="8">
@@ -3104,14 +3135,14 @@
       <c r="G21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="22">
         <v>45030</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="23">
         <v>44997</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="8">
@@ -3136,13 +3167,13 @@
       <c r="I22" s="23">
         <v>45144</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="22">
         <v>45530</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <v>45247</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="8">
@@ -3164,16 +3195,16 @@
       <c r="G23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="22">
         <v>45372</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="22">
         <v>45063</v>
       </c>
       <c r="K23" s="23">
         <v>44952</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="2:12" ht="19.5" customHeight="1">
       <c r="B24" s="9" t="s">
@@ -3209,16 +3240,16 @@
       <c r="G25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <v>45348</v>
       </c>
       <c r="J25" s="23">
         <v>44963</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>45585</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>45356</v>
       </c>
     </row>
@@ -3242,16 +3273,16 @@
       <c r="G26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <v>45045</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>45415</v>
       </c>
       <c r="K26" s="23">
         <v>45005</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="22">
         <v>45437</v>
       </c>
     </row>
@@ -3275,14 +3306,14 @@
       <c r="G27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="22">
         <v>45208</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="23">
         <v>45071</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="22">
         <v>45598</v>
       </c>
     </row>

--- a/10.ヒューマンスキル/01.ビジネスツール/リンク集_雛形.xlsx
+++ b/10.ヒューマンスキル/01.ビジネスツール/リンク集_雛形.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/01.kai9文書/10.ヒューマンスキル/01.ビジネスツール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="8_{ACB9D01B-0A07-4732-9109-F1FD50C83E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C4B3CA-9F02-49E0-A71A-41DE7C8EAEFE}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="8_{ACB9D01B-0A07-4732-9109-F1FD50C83E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65EBE15-19C7-4B99-9E72-623B307C3742}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>絶対パス</t>
     <rPh sb="0" eb="2">
@@ -672,33 +672,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補足：Teamsにファイルを配置すると、開いた人全員で、同じエクセルファイルを同時編集できるので、とても便利です。</t>
+    <t>補足：</t>
     <rPh sb="0" eb="2">
       <t>ホソク</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsにファイルを配置すると、開いた人全員で、同じエクセルファイルを同時編集できるので、とても便利です。</t>
+  </si>
+  <si>
+    <t>また、Teamsに配置する事で、各ファイルの閲覧権も管理できます。</t>
+    <rPh sb="9" eb="11">
       <t>ハイチ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ベンリ</t>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2290,7 +2291,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2518,7 +2519,7 @@
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2552,9 +2553,19 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
